--- a/엑셀/함수_Choose_사원명부.xlsx
+++ b/엑셀/함수_Choose_사원명부.xlsx
@@ -1,27 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\2019합본호개정판\Data\3장\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\kjw\QGIS\엑셀\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162AA3AF-BEB9-4A15-9447-6D9BCBEC6B1A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9DDAB34-BEA8-4ADE-A371-F80D60CA78C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="26400" windowHeight="15270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <webPublishing codePage="949"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="54">
   <si>
     <t>이름</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +72,6 @@
     <t>840103-1058456</t>
   </si>
   <si>
-    <t>생년월일</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>박영희</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -224,6 +233,14 @@
   </si>
   <si>
     <t>임진욱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주민번호에서 가져오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최종</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -330,10 +347,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -650,84 +667,108 @@
     <col min="3" max="3" width="9.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="6.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="7.109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5546875" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="8.88671875" style="1"/>
+    <col min="8" max="8" width="10.33203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:8" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+    </row>
+    <row r="3" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="7"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-    </row>
-    <row r="3" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="D3" s="8" t="s">
+      <c r="E3" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="8" t="s">
+      <c r="F3" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C4" s="6">
         <v>40532</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F4" s="3" t="str">
+        <f>MID(B4,8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="5" t="str">
+        <f>CHOOSE(F4,"남","여","남","여")</f>
+        <v>남</v>
+      </c>
+      <c r="H4" s="1" t="str">
+        <f>CHOOSE(MID(B4,8,1),"남","여","남","여")</f>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C5" s="5">
         <v>39479</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="3"/>
-      <c r="G5" s="5"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F5" s="3" t="str">
+        <f t="shared" ref="F5:F20" si="0">MID(B5,8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="G5" s="5" t="str">
+        <f t="shared" ref="G5:G20" si="1">CHOOSE(F5,"남","여","남","여")</f>
+        <v>남</v>
+      </c>
+      <c r="H5" s="1" t="str">
+        <f t="shared" ref="H5:H20" si="2">CHOOSE(MID(B5,8,1),"남","여","남","여")</f>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>2</v>
       </c>
@@ -738,55 +779,85 @@
         <v>36200</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="3"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F6" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H6" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="6">
         <v>39845</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="3"/>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F7" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H7" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C8" s="6">
         <v>35283</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F8" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H8" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>5</v>
@@ -795,36 +866,56 @@
         <v>36489</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="3"/>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H9" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C10" s="6">
         <v>39265</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F10" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H10" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
@@ -833,17 +924,27 @@
         <v>34160</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="F11" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H11" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>10</v>
@@ -852,55 +953,85 @@
         <v>38921</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="F12" s="3"/>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="F12" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H12" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C13" s="6">
         <v>40167</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F13" s="3"/>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F13" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H13" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C14" s="5">
         <v>28863</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F14" s="3"/>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F14" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H14" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>6</v>
@@ -909,17 +1040,27 @@
         <v>32064</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F15" s="3"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F15" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H15" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>9</v>
@@ -928,36 +1069,56 @@
         <v>29606</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="F16" s="3"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="F16" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H16" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C17" s="5">
         <v>41009</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="3"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F17" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H17" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>7</v>
@@ -966,54 +1127,84 @@
         <v>37406</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="F18" s="3"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="F18" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H18" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="5">
         <v>41374</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F19" s="3"/>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="F19" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="G19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>남</v>
+      </c>
+      <c r="H19" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>남</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="5">
         <v>39480</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="F20" s="3"/>
-      <c r="G20" s="5"/>
+        <v>42</v>
+      </c>
+      <c r="F20" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="G20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>여</v>
+      </c>
+      <c r="H20" s="1" t="str">
+        <f t="shared" si="2"/>
+        <v>여</v>
+      </c>
     </row>
   </sheetData>
-  <sortState ref="A4:G20">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:G20">
     <sortCondition ref="A3"/>
   </sortState>
   <mergeCells count="1">
